--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsRI.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsRI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>occupation</t>
   </si>
@@ -52,9 +52,6 @@
     <t>cooper</t>
   </si>
   <si>
-    <t>cordwainer</t>
-  </si>
-  <si>
     <t>deacon</t>
   </si>
   <si>
@@ -64,7 +61,7 @@
     <t>doctor</t>
   </si>
   <si>
-    <t>esquier</t>
+    <t>esq</t>
   </si>
   <si>
     <t>extors</t>
@@ -88,7 +85,7 @@
     <t>housewright</t>
   </si>
   <si>
-    <t>innholder</t>
+    <t>inn keeper</t>
   </si>
   <si>
     <t>labourer</t>
@@ -103,9 +100,6 @@
     <t>merchant</t>
   </si>
   <si>
-    <t>physician</t>
-  </si>
-  <si>
     <t>proprietors</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
   </si>
   <si>
     <t>widow</t>
-  </si>
-  <si>
-    <t>yeoman</t>
   </si>
 </sst>
 </file>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>417.48</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>16.35</v>
+        <v>466.2500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>466.2500000000001</v>
+        <v>3121.69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>445.45</v>
+        <v>68401.5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>68401.5</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>124.5</v>
+        <v>14625.23000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +680,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1487.53</v>
+        <v>2396.7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -700,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>2396.7</v>
+        <v>982.35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -711,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>982.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -722,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>828.6600000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -733,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>828.6600000000001</v>
+        <v>266.67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -744,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>266.67</v>
+        <v>1430.29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -755,7 +746,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1430.29</v>
+        <v>67.16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -766,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>67.16</v>
+        <v>4857.32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -777,7 +768,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>4857.32</v>
+        <v>1152.5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -788,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>1152.5</v>
+        <v>99961.91999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -799,7 +790,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>99961.91999999998</v>
+        <v>58.64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -810,7 +801,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>2676.24</v>
+        <v>2054.38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -821,7 +812,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>58.64</v>
+        <v>89.72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -832,7 +823,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>2054.38</v>
+        <v>532.36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -843,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>89.72</v>
+        <v>721.33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -854,7 +845,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>114.88</v>
+        <v>1297.73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -865,7 +856,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>721.33</v>
+        <v>480.1300000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -876,7 +867,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>1297.73</v>
+        <v>222647.66</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -887,40 +878,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>480.1300000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>222647.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
         <v>6182.060000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>13137.7</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsRI.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsRI.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>administratrix</t>
@@ -482,403 +488,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>460.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>153.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>206.37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>206.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>540.6800000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>180.2266666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>235.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>235.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>47.57</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1596.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>532.0500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>16.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>466.2500000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>155.4166666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>3121.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>390.2112499999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>68401.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <v>526.1653846153846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>124.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>14625.23000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>182.8153750000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>2396.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>239.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>982.35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>982.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>828.6600000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>414.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>266.67</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>266.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>1430.29</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>178.78625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>67.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>33.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>4857.32</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>194.2928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>1152.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>384.1666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>99961.91999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>98</v>
+      </c>
+      <c r="E27">
+        <v>1020.019591836735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>58.64</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>58.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2054.38</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1027.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>89.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>532.36</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>266.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>721.33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>240.4433333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>1297.73</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>324.4325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>480.1300000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>80.02166666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>222647.66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>17126.74307692308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>6182.060000000001</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>268.7852173913044</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsRI.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsRI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>occupation</t>
   </si>
@@ -25,112 +25,115 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>treasurer</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>esq</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>widow</t>
+  </si>
+  <si>
+    <t>mariner</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>reverend</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>inn keeper</t>
+  </si>
+  <si>
+    <t>taylor</t>
+  </si>
+  <si>
+    <t>mason</t>
+  </si>
+  <si>
+    <t>glazier</t>
+  </si>
+  <si>
+    <t>hatter</t>
+  </si>
+  <si>
+    <t>spinster</t>
+  </si>
+  <si>
+    <t>blacksmith</t>
+  </si>
+  <si>
+    <t>shoemaker</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>distiller</t>
+  </si>
+  <si>
+    <t>auctioneers</t>
+  </si>
+  <si>
+    <t>housewright</t>
+  </si>
+  <si>
+    <t>butcher</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>extors</t>
+  </si>
+  <si>
+    <t>shipwright</t>
+  </si>
+  <si>
+    <t>labourer</t>
+  </si>
+  <si>
+    <t>proprietors</t>
+  </si>
+  <si>
+    <t>chaise maker</t>
+  </si>
+  <si>
+    <t>deacon</t>
+  </si>
+  <si>
+    <t>blockmaker</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>goldsmith</t>
+  </si>
+  <si>
     <t>administratrix</t>
-  </si>
-  <si>
-    <t>auctioneers</t>
-  </si>
-  <si>
-    <t>baker</t>
-  </si>
-  <si>
-    <t>blacksmith</t>
-  </si>
-  <si>
-    <t>blockmaker</t>
-  </si>
-  <si>
-    <t>broker</t>
-  </si>
-  <si>
-    <t>butcher</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>chaise maker</t>
-  </si>
-  <si>
-    <t>cooper</t>
-  </si>
-  <si>
-    <t>deacon</t>
-  </si>
-  <si>
-    <t>distiller</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>esq</t>
-  </si>
-  <si>
-    <t>extors</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>gentleman</t>
-  </si>
-  <si>
-    <t>glazier</t>
-  </si>
-  <si>
-    <t>goldsmith</t>
-  </si>
-  <si>
-    <t>hatter</t>
-  </si>
-  <si>
-    <t>housewright</t>
-  </si>
-  <si>
-    <t>inn keeper</t>
-  </si>
-  <si>
-    <t>labourer</t>
-  </si>
-  <si>
-    <t>mariner</t>
-  </si>
-  <si>
-    <t>mason</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
-    <t>proprietors</t>
-  </si>
-  <si>
-    <t>reverend</t>
-  </si>
-  <si>
-    <t>shipwright</t>
-  </si>
-  <si>
-    <t>shoemaker</t>
-  </si>
-  <si>
-    <t>spinster</t>
-  </si>
-  <si>
-    <t>taylor</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>treasurer</t>
-  </si>
-  <si>
-    <t>widow</t>
   </si>
 </sst>
 </file>
@@ -488,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,166 +510,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>222647.66</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2.901785714285714</v>
+      </c>
+      <c r="F2">
+        <v>17126.74307692308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>460.77</v>
+        <v>99961.91999999998</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E3">
-        <v>153.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>21.875</v>
+      </c>
+      <c r="F3">
+        <v>1020.019591836735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>206.37</v>
+        <v>68401.5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>206.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>29.01785714285715</v>
+      </c>
+      <c r="F4">
+        <v>526.1653846153846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>540.6800000000001</v>
+        <v>14625.23000000001</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>180.2266666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="F5">
+        <v>182.8153750000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>4.43</v>
+        <v>6182.060000000001</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>5.133928571428571</v>
+      </c>
+      <c r="F6">
+        <v>268.7852173913044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>171.5</v>
+        <v>4857.32</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>85.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>5.580357142857143</v>
+      </c>
+      <c r="F7">
+        <v>194.2928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>235.7</v>
+        <v>3121.69</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>235.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="F8">
+        <v>390.2112499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2396.7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>2.232142857142857</v>
+      </c>
+      <c r="F9">
+        <v>239.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>47.57</v>
+        <v>2054.38</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>47.57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F10">
+        <v>1027.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1596.15</v>
@@ -675,432 +708,510 @@
         <v>3</v>
       </c>
       <c r="E11">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="F11">
         <v>532.0500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>16.35</v>
+        <v>1430.29</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>16.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="F12">
+        <v>178.78625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>466.2500000000001</v>
+        <v>1297.73</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>155.4166666666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.8928571428571428</v>
+      </c>
+      <c r="F13">
+        <v>324.4325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>3121.69</v>
+        <v>1152.5</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>390.2112499999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="F14">
+        <v>384.1666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>68401.5</v>
+        <v>982.35</v>
       </c>
       <c r="D15">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>526.1653846153846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F15">
+        <v>982.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>124.5</v>
+        <v>828.6600000000001</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>62.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F16">
+        <v>414.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>14625.23000000001</v>
+        <v>721.33</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>182.8153750000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="F17">
+        <v>240.4433333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>2396.7</v>
+        <v>540.6800000000001</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>239.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="F18">
+        <v>180.2266666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>982.35</v>
+        <v>532.36</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>982.35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F19">
+        <v>266.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>480.1300000000001</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1.339285714285714</v>
+      </c>
+      <c r="F20">
+        <v>80.02166666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>828.6600000000001</v>
+        <v>466.2500000000001</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>414.33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="F21">
+        <v>155.4166666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>266.67</v>
+        <v>460.77</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>266.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.6696428571428571</v>
+      </c>
+      <c r="F22">
+        <v>153.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>1430.29</v>
+        <v>266.67</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>178.78625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F23">
+        <v>266.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>67.16</v>
+        <v>235.7</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>33.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F24">
+        <v>235.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>4857.32</v>
+        <v>206.37</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>194.2928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F25">
+        <v>206.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>1152.5</v>
+        <v>171.5</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>384.1666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F26">
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>99961.91999999998</v>
+        <v>124.5</v>
       </c>
       <c r="D27">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>1020.019591836735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F27">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>58.64</v>
+        <v>89.72</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>58.64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F28">
+        <v>44.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>2054.38</v>
+        <v>67.16</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>1027.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.4464285714285714</v>
+      </c>
+      <c r="F29">
+        <v>33.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>89.72</v>
+        <v>58.64</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>44.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F30">
+        <v>58.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>532.36</v>
+        <v>47.57</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>266.18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F31">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>721.33</v>
+        <v>16.35</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>240.4433333333334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F32">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>1297.73</v>
+        <v>4.43</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>324.4325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F33">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>480.1300000000001</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>80.02166666666668</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>222647.66</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>17126.74307692308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>6182.060000000001</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>268.7852173913044</v>
+        <v>0.2232142857142857</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
